--- a/testdata/testdomaindata.xlsx
+++ b/testdata/testdomaindata.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\mainproject\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8196BC65-3ED3-4028-B264-7840D9729459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +24,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+  <si>
+    <t>Sr.no</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Result Action</t>
+  </si>
+  <si>
+    <t>Dahsboard 2</t>
+  </si>
+  <si>
+    <t>prestep</t>
+  </si>
+  <si>
+    <t>homePage</t>
+  </si>
+  <si>
+    <t>//button[text()='Dashboard']</t>
+  </si>
+  <si>
+    <t>//button[text()='Coster']</t>
+  </si>
+  <si>
+    <t>//button[text()='Refit']</t>
+  </si>
+  <si>
+    <t>//button[text()='HR']</t>
+  </si>
+  <si>
+    <t>//button[text()='BMS']</t>
+  </si>
+  <si>
+    <t>//button[text()='YUS']</t>
+  </si>
+  <si>
+    <t>Coster</t>
+  </si>
+  <si>
+    <t>Refit</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>YUS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF00627A"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +422,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>